--- a/datas/choice_watermelon.xlsx
+++ b/datas/choice_watermelon.xlsx
@@ -224,8 +224,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -340,7 +342,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="113">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -396,6 +398,7 @@
     <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -451,6 +454,7 @@
     <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -783,7 +787,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1019,7 +1023,7 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">

--- a/datas/choice_watermelon.xlsx
+++ b/datas/choice_watermelon.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\studyAI\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84B7BFE-A836-47D8-87D9-449B3FEB16B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="32400" yWindow="1830" windowWidth="21600" windowHeight="11850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -171,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -343,6 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="113">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -399,66 +406,73 @@
     <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -783,16 +797,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -844,7 +858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -870,7 +884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -896,7 +910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -922,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -948,7 +962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -974,7 +988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1000,7 +1014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1026,7 +1040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1052,7 +1066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1078,7 +1092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1104,7 +1118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1130,7 +1144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1156,7 +1170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1182,7 +1196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1208,7 +1222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1216,7 +1230,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -1234,7 +1248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1242,7 +1256,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
